--- a/statistics/HistoricalDistanceData/historical_distance/Q5579337-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q5579337-en.xlsx
@@ -31,6 +31,9 @@
     <t>uri</t>
   </si>
   <si>
+    <t>Coast Chinatown Seeks to Still Fears</t>
+  </si>
+  <si>
     <t>$25,000 Reward Offered In 5 Slayings on Coast</t>
   </si>
   <si>
@@ -40,13 +43,13 @@
     <t>Year of Horse a Time of Change For Chinatowns Across Nation</t>
   </si>
   <si>
-    <t>Coast Chinatown Seeks to Still Fears</t>
+    <t>SQUAD REDUCES CHINATOWN VIOLENCE ON COAST</t>
   </si>
   <si>
     <t>The Golden Dragon Restaurant Massacre</t>
   </si>
   <si>
-    <t>SQUAD REDUCES CHINATOWN VIOLENCE ON COAST</t>
+    <t>1977-10-02T01:00:00UTC</t>
   </si>
   <si>
     <t>1977-09-07T01:00:00UTC</t>
@@ -58,9 +61,6 @@
     <t>1978-02-13T00:00:00UTC</t>
   </si>
   <si>
-    <t>1977-10-02T01:00:00UTC</t>
-  </si>
-  <si>
     <t>1-01-01T00:00:00UTC</t>
   </si>
   <si>
@@ -73,6 +73,9 @@
     <t>day_31_beyond</t>
   </si>
   <si>
+    <t>https://www.nytimes.com/1977/10/02/archives/coast-chinatown-seeks-to-still-fears.html</t>
+  </si>
+  <si>
     <t>https://www.nytimes.com/1977/09/07/archives/25000-reward-offered-in-5-slayings-on-coast.html</t>
   </si>
   <si>
@@ -82,13 +85,10 @@
     <t>https://www.nytimes.com/1978/02/13/archives/year-of-horse-a-time-of-change-for-chinatowns-across-nation-i-want.html</t>
   </si>
   <si>
-    <t>https://www.nytimes.com/1977/10/02/archives/coast-chinatown-seeks-to-still-fears.html</t>
+    <t>https://www.nytimes.com/1983/09/23/us/squad-reduces-chinatown-violence-on-coast.html</t>
   </si>
   <si>
     <t>http://foundsf.org/index.php?title=The_Golden_Dragon_Restaurant_Massacre</t>
-  </si>
-  <si>
-    <t>https://www.nytimes.com/1983/09/23/us/squad-reduces-chinatown-violence-on-coast.html</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -507,10 +507,10 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>230</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
@@ -524,7 +524,7 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>162</v>
+        <v>230</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -541,10 +541,10 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>162</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
